--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/99/correct_predictions_99.xlsx
@@ -596,42 +596,42 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Restart camera</t>
+          <t>AI Spot-Check failed</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Minimum RTH Altitude is 30m</t>
+          <t>Restart camera</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,22 +656,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Minimum RTH Altitude is 30m</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -686,52 +686,52 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12-26</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Battery not installed properly</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>12-26</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -806,22 +806,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this persists</t>
+          <t>Compass Stuck</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1217,31 +1217,31 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>RTH Altitude is nnn</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RTH Altitude is nnn</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>11-25</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1286,42 +1286,42 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11-25</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Positioning accuracy may be compromised</t>
+          <t>Weak GPS signal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1376,42 +1376,42 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>May violate local policies and regulations</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>May violate local policies and regulations</t>
+          <t>Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1466,42 +1466,42 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ensure you have obtained proper airspace authorization</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1556,22 +1556,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/99/correct_predictions_99.xlsx
@@ -596,42 +596,42 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AI Spot-Check failed</t>
+          <t>Restart camera</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Restart camera</t>
+          <t>Minimum RTH Altitude is 30m</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,22 +656,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Minimum RTH Altitude is 30m</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -686,52 +686,52 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>12-26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Battery not installed properly</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12-26</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -806,22 +806,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Compass Stuck</t>
+          <t>Contact DJI Support if this persists</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1217,31 +1217,31 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RTH Altitude is nnn</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>RTH Altitude is nnn</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11-25</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1286,42 +1286,42 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>11-25</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Positioning accuracy may be compromised</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1376,42 +1376,42 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Weak GPS signal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>May violate local policies and regulations</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ensure you have obtained proper airspace authorization</t>
+          <t>May violate local policies and regulations</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1466,42 +1466,42 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1556,22 +1556,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Please check the Compass installation and interference</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
